--- a/90家.xlsx
+++ b/90家.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\workspace\git\education\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1BB5F87-4810-4B49-B5E7-3B5D593D0DB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B92427ED-6C6B-4590-A00C-AC0CFEDFFAB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="用户数据" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">用户数据!$J$1:$J$932</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
@@ -6395,7 +6398,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -6421,6 +6424,7 @@
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -6431,6 +6435,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -6536,7 +6541,7 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6545,17 +6550,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6931,8 +6936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L932"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A903" workbookViewId="0">
-      <selection activeCell="J913" sqref="J913"/>
+    <sheetView tabSelected="1" topLeftCell="A785" workbookViewId="0">
+      <selection activeCell="N797" sqref="N797"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6947,19 +6952,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
     </row>
     <row r="2" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -13392,7 +13397,7 @@
       <c r="F242" s="4"/>
       <c r="G242" s="4"/>
       <c r="H242" s="4"/>
-      <c r="I242" s="12" t="s">
+      <c r="I242" s="10" t="s">
         <v>2106</v>
       </c>
       <c r="J242" s="4" t="s">
@@ -13652,7 +13657,7 @@
       <c r="F252" s="4"/>
       <c r="G252" s="4"/>
       <c r="H252" s="4"/>
-      <c r="I252" s="12" t="s">
+      <c r="I252" s="10" t="s">
         <v>2105</v>
       </c>
       <c r="J252" s="4" t="s">
@@ -19372,14 +19377,14 @@
       <c r="F472" s="4"/>
       <c r="G472" s="4"/>
       <c r="H472" s="4"/>
-      <c r="I472" s="12" t="s">
+      <c r="I472" s="10" t="s">
         <v>2104</v>
       </c>
       <c r="J472" s="4" t="s">
         <v>1047</v>
       </c>
       <c r="K472" s="4"/>
-      <c r="L472" s="13" t="s">
+      <c r="L472" s="11" t="s">
         <v>2103</v>
       </c>
     </row>
@@ -20672,7 +20677,7 @@
       <c r="F522" s="4"/>
       <c r="G522" s="4"/>
       <c r="H522" s="4"/>
-      <c r="I522" s="12" t="s">
+      <c r="I522" s="10" t="s">
         <v>2019</v>
       </c>
       <c r="J522" s="4" t="s">
@@ -20698,7 +20703,7 @@
       <c r="F523" s="4"/>
       <c r="G523" s="4"/>
       <c r="H523" s="4"/>
-      <c r="I523" s="12" t="s">
+      <c r="I523" s="10" t="s">
         <v>2021</v>
       </c>
       <c r="J523" s="4" t="s">
@@ -20958,7 +20963,7 @@
       <c r="F533" s="4"/>
       <c r="G533" s="4"/>
       <c r="H533" s="4"/>
-      <c r="I533" s="12" t="s">
+      <c r="I533" s="10" t="s">
         <v>2023</v>
       </c>
       <c r="J533" s="4" t="s">
@@ -21426,7 +21431,7 @@
       <c r="F551" s="4"/>
       <c r="G551" s="4"/>
       <c r="H551" s="4"/>
-      <c r="I551" s="12" t="s">
+      <c r="I551" s="10" t="s">
         <v>2026</v>
       </c>
       <c r="J551" s="4" t="s">
@@ -21452,7 +21457,7 @@
       <c r="F552" s="4"/>
       <c r="G552" s="4"/>
       <c r="H552" s="4"/>
-      <c r="I552" s="12" t="s">
+      <c r="I552" s="10" t="s">
         <v>2025</v>
       </c>
       <c r="J552" s="4" t="s">
@@ -21712,7 +21717,7 @@
       <c r="F562" s="4"/>
       <c r="G562" s="4"/>
       <c r="H562" s="4"/>
-      <c r="I562" s="12" t="s">
+      <c r="I562" s="10" t="s">
         <v>2028</v>
       </c>
       <c r="J562" s="4" t="s">
@@ -21972,7 +21977,7 @@
       <c r="F572" s="4"/>
       <c r="G572" s="4"/>
       <c r="H572" s="4"/>
-      <c r="I572" s="12" t="s">
+      <c r="I572" s="10" t="s">
         <v>2030</v>
       </c>
       <c r="J572" s="4" t="s">
@@ -21998,7 +22003,7 @@
       <c r="F573" s="4"/>
       <c r="G573" s="4"/>
       <c r="H573" s="4"/>
-      <c r="I573" s="12" t="s">
+      <c r="I573" s="10" t="s">
         <v>2032</v>
       </c>
       <c r="J573" s="4" t="s">
@@ -22232,7 +22237,7 @@
       <c r="F582" s="4"/>
       <c r="G582" s="4"/>
       <c r="H582" s="4"/>
-      <c r="I582" s="12" t="s">
+      <c r="I582" s="10" t="s">
         <v>2033</v>
       </c>
       <c r="J582" s="4" t="s">
@@ -22492,7 +22497,7 @@
       <c r="F592" s="4"/>
       <c r="G592" s="4"/>
       <c r="H592" s="4"/>
-      <c r="I592" s="12" t="s">
+      <c r="I592" s="10" t="s">
         <v>2035</v>
       </c>
       <c r="J592" s="4" t="s">
@@ -22752,7 +22757,7 @@
       <c r="F602" s="4"/>
       <c r="G602" s="4"/>
       <c r="H602" s="4"/>
-      <c r="I602" s="12" t="s">
+      <c r="I602" s="10" t="s">
         <v>2037</v>
       </c>
       <c r="J602" s="4" t="s">
@@ -23012,7 +23017,7 @@
       <c r="F612" s="4"/>
       <c r="G612" s="4"/>
       <c r="H612" s="4"/>
-      <c r="I612" s="12" t="s">
+      <c r="I612" s="10" t="s">
         <v>2039</v>
       </c>
       <c r="J612" s="4" t="s">
@@ -23272,7 +23277,7 @@
       <c r="F622" s="4"/>
       <c r="G622" s="4"/>
       <c r="H622" s="4"/>
-      <c r="I622" s="12" t="s">
+      <c r="I622" s="10" t="s">
         <v>2041</v>
       </c>
       <c r="J622" s="4" t="s">
@@ -23532,7 +23537,7 @@
       <c r="F632" s="4"/>
       <c r="G632" s="4"/>
       <c r="H632" s="4"/>
-      <c r="I632" s="12" t="s">
+      <c r="I632" s="10" t="s">
         <v>2043</v>
       </c>
       <c r="J632" s="4" t="s">
@@ -23766,7 +23771,7 @@
       <c r="F641" s="4"/>
       <c r="G641" s="4"/>
       <c r="H641" s="4"/>
-      <c r="I641" s="12" t="s">
+      <c r="I641" s="10" t="s">
         <v>2045</v>
       </c>
       <c r="J641" s="4" t="s">
@@ -24052,7 +24057,7 @@
       <c r="F652" s="4"/>
       <c r="G652" s="4"/>
       <c r="H652" s="4"/>
-      <c r="I652" s="12" t="s">
+      <c r="I652" s="10" t="s">
         <v>2047</v>
       </c>
       <c r="J652" s="4" t="s">
@@ -24312,7 +24317,7 @@
       <c r="F662" s="4"/>
       <c r="G662" s="4"/>
       <c r="H662" s="4"/>
-      <c r="I662" s="12" t="s">
+      <c r="I662" s="10" t="s">
         <v>2049</v>
       </c>
       <c r="J662" s="4" t="s">
@@ -24572,7 +24577,7 @@
       <c r="F672" s="4"/>
       <c r="G672" s="4"/>
       <c r="H672" s="4"/>
-      <c r="I672" s="12" t="s">
+      <c r="I672" s="10" t="s">
         <v>2051</v>
       </c>
       <c r="J672" s="4" t="s">
@@ -24598,7 +24603,7 @@
       <c r="F673" s="4"/>
       <c r="G673" s="4"/>
       <c r="H673" s="4"/>
-      <c r="I673" s="12" t="s">
+      <c r="I673" s="10" t="s">
         <v>2053</v>
       </c>
       <c r="J673" s="4" t="s">
@@ -25092,7 +25097,7 @@
       <c r="F692" s="4"/>
       <c r="G692" s="4"/>
       <c r="H692" s="4"/>
-      <c r="I692" s="12" t="s">
+      <c r="I692" s="10" t="s">
         <v>2055</v>
       </c>
       <c r="J692" s="4" t="s">
@@ -25352,7 +25357,7 @@
       <c r="F702" s="4"/>
       <c r="G702" s="4"/>
       <c r="H702" s="4"/>
-      <c r="I702" s="12" t="s">
+      <c r="I702" s="10" t="s">
         <v>2057</v>
       </c>
       <c r="J702" s="4" t="s">
@@ -25612,7 +25617,7 @@
       <c r="F712" s="4"/>
       <c r="G712" s="4"/>
       <c r="H712" s="4"/>
-      <c r="I712" s="12" t="s">
+      <c r="I712" s="10" t="s">
         <v>2059</v>
       </c>
       <c r="J712" s="4" t="s">
@@ -25872,7 +25877,7 @@
       <c r="F722" s="4"/>
       <c r="G722" s="4"/>
       <c r="H722" s="4"/>
-      <c r="I722" s="12" t="s">
+      <c r="I722" s="10" t="s">
         <v>2061</v>
       </c>
       <c r="J722" s="4" t="s">
@@ -26132,7 +26137,7 @@
       <c r="F732" s="4"/>
       <c r="G732" s="4"/>
       <c r="H732" s="4"/>
-      <c r="I732" s="12" t="s">
+      <c r="I732" s="10" t="s">
         <v>2063</v>
       </c>
       <c r="J732" s="4" t="s">
@@ -26392,7 +26397,7 @@
       <c r="F742" s="4"/>
       <c r="G742" s="4"/>
       <c r="H742" s="4"/>
-      <c r="I742" s="12" t="s">
+      <c r="I742" s="10" t="s">
         <v>2065</v>
       </c>
       <c r="J742" s="4" t="s">
@@ -26652,7 +26657,7 @@
       <c r="F752" s="4"/>
       <c r="G752" s="4"/>
       <c r="H752" s="4"/>
-      <c r="I752" s="12" t="s">
+      <c r="I752" s="10" t="s">
         <v>2067</v>
       </c>
       <c r="J752" s="4" t="s">
@@ -26912,7 +26917,7 @@
       <c r="F762" s="4"/>
       <c r="G762" s="4"/>
       <c r="H762" s="4"/>
-      <c r="I762" s="12" t="s">
+      <c r="I762" s="10" t="s">
         <v>2069</v>
       </c>
       <c r="J762" s="4" t="s">
@@ -27172,7 +27177,7 @@
       <c r="F772" s="4"/>
       <c r="G772" s="4"/>
       <c r="H772" s="4"/>
-      <c r="I772" s="12" t="s">
+      <c r="I772" s="10" t="s">
         <v>2071</v>
       </c>
       <c r="J772" s="4" t="s">
@@ -27432,7 +27437,7 @@
       <c r="F782" s="4"/>
       <c r="G782" s="4"/>
       <c r="H782" s="4"/>
-      <c r="I782" s="12" t="s">
+      <c r="I782" s="10" t="s">
         <v>2073</v>
       </c>
       <c r="J782" s="4" t="s">
@@ -27458,7 +27463,7 @@
       <c r="F783" s="4"/>
       <c r="G783" s="4"/>
       <c r="H783" s="4"/>
-      <c r="I783" s="12" t="s">
+      <c r="I783" s="10" t="s">
         <v>2075</v>
       </c>
       <c r="J783" s="4" t="s">
@@ -27718,7 +27723,7 @@
       <c r="F793" s="4"/>
       <c r="G793" s="4"/>
       <c r="H793" s="4"/>
-      <c r="I793" s="12" t="s">
+      <c r="I793" s="10" t="s">
         <v>2077</v>
       </c>
       <c r="J793" s="4" t="s">
@@ -28212,7 +28217,7 @@
       <c r="F812" s="4"/>
       <c r="G812" s="4"/>
       <c r="H812" s="4"/>
-      <c r="I812" s="12" t="s">
+      <c r="I812" s="10" t="s">
         <v>2079</v>
       </c>
       <c r="J812" s="4" t="s">
@@ -28472,7 +28477,7 @@
       <c r="F822" s="4"/>
       <c r="G822" s="4"/>
       <c r="H822" s="4"/>
-      <c r="I822" s="12" t="s">
+      <c r="I822" s="10" t="s">
         <v>2081</v>
       </c>
       <c r="J822" s="4" t="s">
@@ -28732,7 +28737,7 @@
       <c r="F832" s="4"/>
       <c r="G832" s="4"/>
       <c r="H832" s="4"/>
-      <c r="I832" s="12" t="s">
+      <c r="I832" s="10" t="s">
         <v>2083</v>
       </c>
       <c r="J832" s="4" t="s">
@@ -28992,7 +28997,7 @@
       <c r="F842" s="4"/>
       <c r="G842" s="4"/>
       <c r="H842" s="4"/>
-      <c r="I842" s="12" t="s">
+      <c r="I842" s="10" t="s">
         <v>2085</v>
       </c>
       <c r="J842" s="4" t="s">
@@ -29252,7 +29257,7 @@
       <c r="F852" s="4"/>
       <c r="G852" s="4"/>
       <c r="H852" s="4"/>
-      <c r="I852" s="12" t="s">
+      <c r="I852" s="10" t="s">
         <v>2087</v>
       </c>
       <c r="J852" s="4" t="s">
@@ -29772,7 +29777,7 @@
       <c r="F872" s="4"/>
       <c r="G872" s="4"/>
       <c r="H872" s="4"/>
-      <c r="I872" s="12" t="s">
+      <c r="I872" s="10" t="s">
         <v>2090</v>
       </c>
       <c r="J872" s="4" t="s">
@@ -30032,7 +30037,7 @@
       <c r="F882" s="4"/>
       <c r="G882" s="4"/>
       <c r="H882" s="4"/>
-      <c r="I882" s="12" t="s">
+      <c r="I882" s="10" t="s">
         <v>2092</v>
       </c>
       <c r="J882" s="4" t="s">
@@ -30292,7 +30297,7 @@
       <c r="F892" s="4"/>
       <c r="G892" s="4"/>
       <c r="H892" s="4"/>
-      <c r="I892" s="12" t="s">
+      <c r="I892" s="10" t="s">
         <v>2094</v>
       </c>
       <c r="J892" s="4" t="s">
@@ -30552,7 +30557,7 @@
       <c r="F902" s="4"/>
       <c r="G902" s="4"/>
       <c r="H902" s="4"/>
-      <c r="I902" s="12" t="s">
+      <c r="I902" s="10" t="s">
         <v>2096</v>
       </c>
       <c r="J902" s="4" t="s">
@@ -30812,7 +30817,7 @@
       <c r="F912" s="4"/>
       <c r="G912" s="4"/>
       <c r="H912" s="4"/>
-      <c r="I912" s="12" t="s">
+      <c r="I912" s="10" t="s">
         <v>2098</v>
       </c>
       <c r="J912" s="4" t="s">
@@ -31072,7 +31077,7 @@
       <c r="F922" s="4"/>
       <c r="G922" s="4"/>
       <c r="H922" s="4"/>
-      <c r="I922" s="12" t="s">
+      <c r="I922" s="10" t="s">
         <v>2100</v>
       </c>
       <c r="J922" s="4" t="s">
@@ -31332,7 +31337,7 @@
       <c r="F932" s="4"/>
       <c r="G932" s="4"/>
       <c r="H932" s="4"/>
-      <c r="I932" s="12" t="s">
+      <c r="I932" s="10" t="s">
         <v>2102</v>
       </c>
       <c r="J932" s="4" t="s">
@@ -31344,6 +31349,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="J1:J932" xr:uid="{97FB88C4-561C-4766-8DC3-888A91B2401E}"/>
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>
   </mergeCells>
